--- a/biology/Botanique/Nivatogastrium_nubigenum/Nivatogastrium_nubigenum.xlsx
+++ b/biology/Botanique/Nivatogastrium_nubigenum/Nivatogastrium_nubigenum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Nivatogastrium nubigenum est une espèce de champignons de la famille des Strophariaceae.
 </t>
@@ -511,11 +523,13 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Le nom correct complet (avec auteur) de ce taxon est Nivatogastrium nubigenum (Harkn.) Singer &amp; A.H.Sm., 1959[1].
-L'espèce a été initialement classée dans le genre Secotium sous le basionyme Secotium nubigenum Harkn., 1886[1].
-Nivatogastrium nubigenum a pour synonymes[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Le nom correct complet (avec auteur) de ce taxon est Nivatogastrium nubigenum (Harkn.) Singer &amp; A.H.Sm., 1959.
+L'espèce a été initialement classée dans le genre Secotium sous le basionyme Secotium nubigenum Harkn., 1886.
+Nivatogastrium nubigenum a pour synonymes :
 Nivatogastrium nubigenum (Harkn.) Singer &amp; A.H.Sm., 1959
 Secotium nubigenum Harkn., 1886</t>
         </is>
@@ -545,7 +559,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>(en) Rolf Singer et Alexander H. Smith, « Studies on Secotiaceous Fungi-V. Nivatogastrium Gen. Nov », Brittonia, Springer Science+Business Media, vol. 11, no 4,‎ 26 octobre 1959, p. 224 (ISSN 0007-196X et 1938-436X, DOI 10.2307/2805007, JSTOR 2805007)</t>
         </is>
